--- a/doc/bath_plan/温泉方案_updated.xlsx
+++ b/doc/bath_plan/温泉方案_updated.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12920" activeTab="1"/>
+    <workbookView windowWidth="27660" windowHeight="10780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="温泉方案" sheetId="1" r:id="rId1"/>
     <sheet name="温泉作用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -155,7 +168,7 @@
     <t>对气血不足引起的疲劳乏力等症状有调理作用。</t>
   </si>
   <si>
-    <t>疼痛调理泉（臭氧泉）</t>
+    <t>疼痛调理泉</t>
   </si>
   <si>
     <t>对各种慢性疼痛、关节炎等症状有缓解作用。</t>
@@ -200,14 +213,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,10 +237,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +293,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -248,128 +301,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,24 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,32 +614,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +647,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -693,148 +699,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,54 +852,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1340,7 +1346,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/doc/bath_plan/温泉方案_updated.xlsx
+++ b/doc/bath_plan/温泉方案_updated.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12920" activeTab="1"/>
+    <workbookView windowWidth="28260" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="温泉方案" sheetId="1" r:id="rId1"/>
     <sheet name="温泉作用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>问题组合</t>
   </si>
@@ -23,6 +36,9 @@
     <t>泡浴方案</t>
   </si>
   <si>
+    <t>健康分析</t>
+  </si>
+  <si>
     <t>皮肤问题</t>
   </si>
   <si>
@@ -113,6 +129,9 @@
     <t>硫磺泉（主池）-疼痛调理泉（主池）-碳酸泉（主池）-睡眠调理泉（主池）</t>
   </si>
   <si>
+    <t>未选择问题</t>
+  </si>
+  <si>
     <t>分类</t>
   </si>
   <si>
@@ -155,7 +174,7 @@
     <t>对气血不足引起的疲劳乏力等症状有调理作用。</t>
   </si>
   <si>
-    <t>疼痛调理泉（臭氧泉）</t>
+    <t>疼痛调理泉</t>
   </si>
   <si>
     <t>对各种慢性疼痛、关节炎等症状有缓解作用。</t>
@@ -200,14 +219,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,10 +243,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +299,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -248,128 +307,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,181 +396,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,24 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,32 +620,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +653,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -693,207 +705,210 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1189,143 +1204,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.6057692307692" customWidth="1"/>
+    <col min="2" max="2" width="74.3557692307692" customWidth="1"/>
+    <col min="3" max="3" width="24.8365384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1339,122 +1365,122 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
